--- a/se_top_keywords_filtered.xlsx
+++ b/se_top_keywords_filtered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,997 +452,2997 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5304</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>amp</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2772</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>design</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1942</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>systems</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1931</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1763</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>code</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1568</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>applications</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1423</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>engineering</t>
+          <t>web</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1334</v>
+        <v>919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>exp</t>
+          <t>data</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1314</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ca</t>
+          <t>solutions</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1290</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>wlsdexception</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1254</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lockedfalse</t>
+          <t>science</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1254</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>semihiddenfalse</t>
+          <t>java</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1254</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>unhidewhenusedfalse</t>
+          <t>technical</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1254</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>inc</t>
+          <t>system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1165</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>mail</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1141</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>systems</t>
+          <t>support</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1121</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>c</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1114</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>technologies</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1097</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>application</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1001</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>sql</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>957</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>business</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>950</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>services</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>924</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>applications</t>
+          <t>required</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>921</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>web</t>
+          <t>comp</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>918</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>implement</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>909</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>905</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>866</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>resume</t>
+          <t>engineers</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>833</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>products</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>817</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>tools</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>810</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>solutions</t>
+          <t>grid</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>801</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>degree</t>
+          <t>apps</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>785</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>product</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>travel</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>734</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>yrs</t>
+          <t>server</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nbsp</t>
+          <t>bachelors</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>711</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>673</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>javascript</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>654</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>technical</t>
+          <t>masters</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>637</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>maintain</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>620</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>requirements</t>
+          <t>analyze</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>developer</t>
+          <t>positions</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>606</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>senior</t>
+          <t>management</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>584</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>foreign</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>578</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>requires</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>567</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mail</t>
+          <t>send</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>559</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>558</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>networks</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>552</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>build</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>543</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>html</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>539</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>namemedium</t>
+          <t>perform</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>539</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>tech</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>536</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>unanticipated</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>532</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>technologies</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>527</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>equiv</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>521</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sql</t>
+          <t>client</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>519</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>based</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>511</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>apply</t>
+          <t>create</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>509</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>plus</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>497</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>us</t>
+          <t>ref</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>496</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>architecture</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>489</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>attn</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>487</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>provide</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>480</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>status</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>478</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>comp</t>
+          <t>llc</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>472</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>implement</t>
+          <t>user</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>470</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>technology</t>
+          <t>database</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>462</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>req</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>458</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>responsible</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>454</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>w</t>
+          <t>reqs</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>447</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>engineers</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>416</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>products</t>
+          <t>include</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>412</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>project</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>405</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>tools</t>
+          <t>dev</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>404</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>grid</t>
+          <t>features</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>402</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>apps</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>391</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>operations</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>389</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>travel</t>
+          <t>locations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>378</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ms</t>
+          <t>security</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>375</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>use</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>374</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>server</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>371</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>equivalent</t>
+          <t>namelight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>371</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>hr</t>
+          <t>namecolorful</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>359</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>seeks</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>351</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>softw</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>350</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>javascript</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>349</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bachelors</t>
+          <t>enterprise</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>348</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>following</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>347</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>san</t>
+          <t>openings</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>344</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>functional</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>344</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>maintain</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>339</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>research</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>339</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>masters</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>332</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>analyze</t>
+          <t>cloud</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>332</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>positions</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>330</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>rel</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>328</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>foreign</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>324</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>requires</t>
+          <t>ste</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>321</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>service</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>319</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>projects</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>suite</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>css</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>specifications</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>net</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>agile</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>problems</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>modify</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>network</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>procedures</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>applicants</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>qualifications</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>components</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>bachelorrsquos</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>dsgn</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>dvlp</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>reqd</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>qformattrue</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>languages</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>minimum</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>rltd</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>accept</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>teams</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>oriented</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>jquery</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>developers</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>sites</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>view</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>relevant</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>processes</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>juniper</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>santa</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>linux</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>standards</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>needed</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>participate</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>improve</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>mvc</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>analyst</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>jee</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>microsoft</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>platforms</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>clara</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>opportunities</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>automation</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>sys</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>lifecycle</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>operational</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>algorithms</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>functionality</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>troubleshoot</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>infrastructure</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>areas</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>aspnet</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>frameworks</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>plsql</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>details</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>manage</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>maintenance</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>customers</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>masterrsquos</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>distributed</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>seattle</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>dvlpmt</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>production</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>mountain</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>drive</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>veteran</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>unix</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>modules</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>documents</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>reports</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>deployment</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>religion</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>sought</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>palo</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>alto</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ensure</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>etc</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>deg</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>deliver</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>innovation</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>databases</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>orientation</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>delivery</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>techniques</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>sexual</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>git</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>relocation</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>visual</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>qualified</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>corporation</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>analytics</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ibm</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>users</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ave</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>plans</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>electrical</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>bachelor</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>api</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>closely</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>analysts</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>master</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>dvlpmnt</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>designs</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>deploy</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>develops</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>hibernate</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>companies</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>blvd</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>member</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>mission</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>engr</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>interfaces</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>utilize</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>digital</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>suitable</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>law</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>meet</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>studio</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>benefits</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>activities</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>methodologies</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>feasibility</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
